--- a/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC04F2FE-AB6A-40D2-837F-57345894BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="3360" windowWidth="17280" windowHeight="8736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4464" yWindow="3360" windowWidth="17280" windowHeight="8736"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +35,6 @@
     <t>Người lập:</t>
   </si>
   <si>
-    <t>Đơn vị: Đồng</t>
-  </si>
-  <si>
     <t>Người duyệt:</t>
   </si>
   <si>
@@ -85,12 +81,15 @@
   </si>
   <si>
     <t>THÀNH TIỀN</t>
+  </si>
+  <si>
+    <t>Đơn vị: Triêu đồng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +293,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_master data" xfId="1" xr:uid="{209F5486-BDC6-4B80-9E73-CD14ECD5AC4D}"/>
+    <cellStyle name="Normal_master data" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,12 +629,12 @@
       <c r="J3" s="13"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -643,59 +642,59 @@
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
       <c r="K6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="M7" s="11"/>
     </row>
@@ -707,13 +706,13 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -725,11 +724,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="C2:J3"/>
     <mergeCell ref="C6:E6"/>
@@ -740,6 +734,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5382E1D-3843-4711-805E-D2DBD6C964BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="3360" windowWidth="17280" windowHeight="8736"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
-    <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Năm ngân sách: </t>
   </si>
   <si>
@@ -84,12 +82,15 @@
   </si>
   <si>
     <t>Đơn vị: Triêu đồng</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH ĐẦU TƯ TRANG THIẾT BỊ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -266,6 +267,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,7 +295,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_master data" xfId="1"/>
+    <cellStyle name="Normal_master data" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,124 +602,127 @@
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="4"/>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12" s="6"/>

--- a/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5382E1D-3843-4711-805E-D2DBD6C964BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA637C-FC00-4B4F-B97C-F6D1BC37D77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>TỔNG MỨC ĐẦU TƯ</t>
   </si>
   <si>
-    <t>NGUỒN VCSH</t>
-  </si>
-  <si>
     <t>TIẾN ĐỘ THỰC HIỆN</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>KẾ HOẠCH ĐẦU TƯ TRANG THIẾT BỊ</t>
+  </si>
+  <si>
+    <t>NGUỒN VỐN</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -631,7 +631,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -650,23 +650,23 @@
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
       <c r="K6" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -676,27 +676,27 @@
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="M7" s="12"/>
     </row>
@@ -708,13 +708,13 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -729,6 +729,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="C2:J3"/>
     <mergeCell ref="C6:E6"/>
@@ -739,11 +744,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA637C-FC00-4B4F-B97C-F6D1BC37D77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B82146A-EE5F-43CA-8BCB-F7B615E6D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">Năm ngân sách: </t>
   </si>
@@ -85,13 +85,16 @@
   </si>
   <si>
     <t>NGUỒN VỐN</t>
+  </si>
+  <si>
+    <t>LOẠI ĐẦU TƯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +128,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -242,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -291,6 +302,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,55 +593,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="B3" s="1"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -629,121 +652,158 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J12" s="6"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuTrangThietBi.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2Sprojsct\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B82146A-EE5F-43CA-8BCB-F7B615E6D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5942A7F-18D7-4AEB-85C3-2C0753A81973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,9 +78,6 @@
     <t>THÀNH TIỀN</t>
   </si>
   <si>
-    <t>Đơn vị: Triêu đồng</t>
-  </si>
-  <si>
     <t>KẾ HOẠCH ĐẦU TƯ TRANG THIẾT BỊ</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>LOẠI ĐẦU TƯ</t>
+  </si>
+  <si>
+    <t>Đơn vị: Đồng</t>
   </si>
 </sst>
 </file>
@@ -279,6 +279,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -302,15 +311,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,16 +625,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="D2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="4"/>
       <c r="M2" s="3" t="s">
         <v>0</v>
@@ -645,17 +645,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="4"/>
       <c r="M3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -668,75 +668,75 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="15" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="18"/>
+      <c r="N6" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="11" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
@@ -746,14 +746,14 @@
       <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -768,8 +768,8 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -788,6 +788,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D6:F6"/>
@@ -798,12 +804,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
